--- a/biology/Zoologie/Dasyprocta/Dasyprocta.xlsx
+++ b/biology/Zoologie/Dasyprocta/Dasyprocta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ou Agouti
 Les agoutis (Dasyprocta) forment un genre de rongeurs qui regroupe des mammifères terrestres d'Amérique tropicale, de taille moyenne. Il ne faut pas confondre ces agoutis avec l'ancien genre Agouti qui regroupe les pacas, ni avec le grand aulacode (Thryonomys swinderianus), appelé agouti en Afrique de l'Ouest.
@@ -513,27 +525,29 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce groupe de rongeurs, dont les espèces sont basées sur la répartition géographique, est susceptible de modifications[2].
-Selon Mammal Species of the World (version 3, 2005)  (18 novembre 2016)[3] et ITIS      (18 novembre 2016)[4]  :
-Dasyprocta azarae Lichtenstein, 1823 - Agouti d'Azara[5],[6]
-Dasyprocta coibae Thomas, 1902 - Agouti de l'île de Coiba[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce groupe de rongeurs, dont les espèces sont basées sur la répartition géographique, est susceptible de modifications.
+Selon Mammal Species of the World (version 3, 2005)  (18 novembre 2016) et ITIS      (18 novembre 2016)  :
+Dasyprocta azarae Lichtenstein, 1823 - Agouti d'Azara,
+Dasyprocta coibae Thomas, 1902 - Agouti de l'île de Coiba
 Dasyprocta cristata (É. Geoffroy Saint-Hilaire, 1803)
-Dasyprocta fuliginosa Wagler, 1832 - Agouti cendré[5],[6]
+Dasyprocta fuliginosa Wagler, 1832 - Agouti cendré,
 Dasyprocta guamara Ojasti, 1972
 Dasyprocta kalinowskii Thomas, 1897
-Dasyprocta leporina (Linnaeus, 1758) - Agouti[7],[8],[9] ou  Agouti doré[6],[9]
+Dasyprocta leporina (Linnaeus, 1758) - Agouti ou  Agouti doré,
 Dasyprocta mexicana Saussure, 1860
 Dasyprocta prymnolopha Wagler, 1831
-Dasyprocta punctata Gray, 1842 - Agouti[5], Agouti ponctué[5] ou Agouti à points[6]
+Dasyprocta punctata Gray, 1842 - Agouti, Agouti ponctué ou Agouti à points
 Dasyprocta ruatanica Thomas, 1901
-Selon NCBI  (18 novembre 2016)[10] :
+Selon NCBI  (18 novembre 2016) :
 Dasyprocta azarae
 Dasyprocta fuliginosa
 Dasyprocta leporina
 Dasyprocta punctata
-Selon Paleobiology Database                   (18 novembre 2016)[11] :
+Selon Paleobiology Database                   (18 novembre 2016) :
 Dasyprocta leporina
 Dasyprocta punctata</t>
         </is>
@@ -563,9 +577,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre avait été classé en 1997 par McKenna et Bell dans la sous-famille des Dasyproctinae, famille des Agoutidae[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre avait été classé en 1997 par McKenna et Bell dans la sous-famille des Dasyproctinae, famille des Agoutidae.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Couleur agouti</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Agouti, en génétique mendélienne, caractérise la couleur du pelage des mammifères par référence à l'agouti, qui possède une robe brun chiné. 
 </t>
@@ -625,9 +643,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la série documentaire animale, "Manaus, une ville au cœur de la jungle[13],[14]", épisode "le règne du bizarre", l'Agouti est cité comme jouant un rôle majeur dans la dispersion des graines de Noix du Brésil et montré en train d'en enterrer les restes pour manger ultérieurement. Le commentaire indique qu'il oublie ses cachettes et permet ainsi à la Noix de germer et de se développer ultérieurement. On le dit également "charognard" car adapté à l'environnement de Manaus et montré mangeant également des croquettes pour chien.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série documentaire animale, "Manaus, une ville au cœur de la jungle,", épisode "le règne du bizarre", l'Agouti est cité comme jouant un rôle majeur dans la dispersion des graines de Noix du Brésil et montré en train d'en enterrer les restes pour manger ultérieurement. Le commentaire indique qu'il oublie ses cachettes et permet ainsi à la Noix de germer et de se développer ultérieurement. On le dit également "charognard" car adapté à l'environnement de Manaus et montré mangeant également des croquettes pour chien.
 </t>
         </is>
       </c>
